--- a/ID3_bagging_nonImput_presisi_2.xlsx
+++ b/ID3_bagging_nonImput_presisi_2.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.25</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="D2" t="n">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="F2" t="n">
         <v>61.54</v>
       </c>
       <c r="G2" t="n">
-        <v>57.14</v>
+        <v>73.33</v>
       </c>
       <c r="H2" t="n">
-        <v>57.14</v>
+        <v>62.5</v>
       </c>
       <c r="I2" t="n">
-        <v>66.67</v>
+        <v>69.23</v>
       </c>
       <c r="J2" t="n">
-        <v>61.54</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>66.67</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>53.33</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>64.70999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="N2" t="n">
         <v>64.29000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>66.67</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.86</v>
+        <v>60</v>
       </c>
       <c r="C3" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>83.33</v>
+        <v>55.56</v>
       </c>
       <c r="E3" t="n">
-        <v>62.5</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>66.67</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>55.56</v>
+        <v>60</v>
       </c>
       <c r="I3" t="n">
         <v>75</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>66.67</v>
       </c>
       <c r="K3" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="L3" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="M3" t="n">
         <v>71.43000000000001</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>62.5</v>
       </c>
-      <c r="M3" t="n">
-        <v>75</v>
-      </c>
-      <c r="N3" t="n">
-        <v>66.67</v>
-      </c>
       <c r="O3" t="n">
-        <v>62.5</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>66.67</v>
       </c>
       <c r="C4" t="n">
-        <v>72.73</v>
+        <v>66.67</v>
       </c>
       <c r="D4" t="n">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>63.64</v>
       </c>
       <c r="F4" t="n">
-        <v>57.14</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
         <v>70</v>
       </c>
       <c r="H4" t="n">
-        <v>54.55</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
-        <v>58.33</v>
+        <v>55.56</v>
       </c>
       <c r="J4" t="n">
-        <v>54.55</v>
+        <v>66.67</v>
       </c>
       <c r="K4" t="n">
-        <v>54.55</v>
+        <v>57.14</v>
       </c>
       <c r="L4" t="n">
-        <v>70</v>
+        <v>55.56</v>
       </c>
       <c r="M4" t="n">
         <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="O4" t="n">
-        <v>55.56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.33</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>33.33</v>
+        <v>37.5</v>
       </c>
       <c r="F5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="J5" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>50</v>
+      </c>
+      <c r="L5" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="M5" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="N5" t="n">
         <v>40</v>
       </c>
-      <c r="G5" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="H5" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="O5" t="n">
         <v>37.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="K5" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="L5" t="n">
-        <v>50</v>
-      </c>
-      <c r="M5" t="n">
-        <v>44.44</v>
-      </c>
-      <c r="N5" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.56</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>46.15</v>
       </c>
       <c r="D6" t="n">
-        <v>66.67</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="H6" t="n">
+        <v>60</v>
+      </c>
+      <c r="I6" t="n">
         <v>54.55</v>
       </c>
-      <c r="F6" t="n">
-        <v>58.33</v>
-      </c>
-      <c r="G6" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="H6" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="L6" t="n">
         <v>44.44</v>
       </c>
-      <c r="J6" t="n">
-        <v>50</v>
-      </c>
-      <c r="K6" t="n">
-        <v>53.85</v>
-      </c>
-      <c r="L6" t="n">
-        <v>55.56</v>
-      </c>
       <c r="M6" t="n">
-        <v>58.33</v>
+        <v>54.55</v>
       </c>
       <c r="N6" t="n">
-        <v>55.56</v>
+        <v>63.64</v>
       </c>
       <c r="O6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.56</v>
+        <v>45.45</v>
       </c>
       <c r="C7" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>46.15</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="F7" t="n">
+        <v>41.67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50</v>
+      </c>
+      <c r="H7" t="n">
         <v>45.45</v>
       </c>
-      <c r="F7" t="n">
-        <v>50</v>
-      </c>
-      <c r="G7" t="n">
-        <v>46.15</v>
-      </c>
-      <c r="H7" t="n">
-        <v>46.15</v>
-      </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>45.45</v>
       </c>
       <c r="J7" t="n">
         <v>41.67</v>
       </c>
       <c r="K7" t="n">
+        <v>54.55</v>
+      </c>
+      <c r="L7" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="M7" t="n">
+        <v>50</v>
+      </c>
+      <c r="N7" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="O7" t="n">
         <v>45.45</v>
-      </c>
-      <c r="L7" t="n">
-        <v>50</v>
-      </c>
-      <c r="M7" t="n">
-        <v>50</v>
-      </c>
-      <c r="N7" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="O7" t="n">
-        <v>46.15</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66.67</v>
+        <v>58.33</v>
       </c>
       <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="E8" t="n">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="H8" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="I8" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="K8" t="n">
         <v>72.73</v>
       </c>
-      <c r="D8" t="n">
-        <v>72.73</v>
-      </c>
-      <c r="E8" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="L8" t="n">
         <v>70</v>
       </c>
-      <c r="G8" t="n">
-        <v>50</v>
-      </c>
-      <c r="H8" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="I8" t="n">
-        <v>72.73</v>
-      </c>
-      <c r="J8" t="n">
-        <v>70</v>
-      </c>
-      <c r="K8" t="n">
-        <v>66.67</v>
-      </c>
-      <c r="L8" t="n">
-        <v>63.64</v>
-      </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>66.67</v>
       </c>
       <c r="N8" t="n">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="O8" t="n">
-        <v>58.33</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="9">
@@ -855,43 +855,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56.25</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>57.14</v>
       </c>
       <c r="D9" t="n">
-        <v>77.78</v>
+        <v>63.64</v>
       </c>
       <c r="E9" t="n">
-        <v>63.64</v>
+        <v>61.54</v>
       </c>
       <c r="F9" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="G9" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64.29000000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="J9" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="K9" t="n">
         <v>80</v>
       </c>
-      <c r="G9" t="n">
-        <v>69.23</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
         <v>72.73</v>
       </c>
-      <c r="I9" t="n">
-        <v>72.73</v>
-      </c>
-      <c r="J9" t="n">
-        <v>80</v>
-      </c>
-      <c r="K9" t="n">
-        <v>61.54</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>88.89</v>
       </c>
-      <c r="M9" t="n">
-        <v>75</v>
-      </c>
       <c r="N9" t="n">
-        <v>57.14</v>
+        <v>66.67</v>
       </c>
       <c r="O9" t="n">
         <v>72.73</v>
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.64</v>
+        <v>36.36</v>
       </c>
       <c r="C10" t="n">
-        <v>54.55</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>58.33</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>42.86</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>46.15</v>
+        <v>53.85</v>
       </c>
       <c r="H10" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="I10" t="n">
         <v>45.45</v>
       </c>
-      <c r="I10" t="n">
-        <v>33.33</v>
-      </c>
       <c r="J10" t="n">
-        <v>57.14</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>50</v>
+        <v>38.46</v>
       </c>
       <c r="L10" t="n">
-        <v>57.14</v>
+        <v>41.67</v>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>45.45</v>
       </c>
       <c r="N10" t="n">
-        <v>42.86</v>
+        <v>50</v>
       </c>
       <c r="O10" t="n">
-        <v>58.33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -953,22 +953,22 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="n">
         <v>75</v>
       </c>
-      <c r="C11" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" t="n">
-        <v>100</v>
-      </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
-        <v>60</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>66.67</v>
@@ -977,22 +977,22 @@
         <v>100</v>
       </c>
       <c r="J11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K11" t="n">
+        <v>66.67</v>
+      </c>
+      <c r="L11" t="n">
         <v>100</v>
-      </c>
-      <c r="K11" t="n">
-        <v>100</v>
-      </c>
-      <c r="L11" t="n">
-        <v>60</v>
       </c>
       <c r="M11" t="n">
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>66.67</v>
+        <v>100</v>
       </c>
       <c r="O11" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
